--- a/medicine/Sexualité et sexologie/L'Enchaîné/L'Enchaîné.xlsx
+++ b/medicine/Sexualité et sexologie/L'Enchaîné/L'Enchaîné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Encha%C3%AEn%C3%A9</t>
+          <t>L'Enchaîné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Enchaîné (titre original : La gabbia) est un film italien réalisé en 1985 par Giuseppe Patroni Griffi[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Enchaîné (titre original : La gabbia) est un film italien réalisé en 1985 par Giuseppe Patroni Griffi.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Encha%C3%AEn%C3%A9</t>
+          <t>L'Enchaîné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paris. Michael vit une relation avec Hélène qui est divorcée. Il croise par hasard Marie, sortant de son appartement situé sur le même palier, avec qui il a eu une aventure sans lendemain lorsqu’ils étaient jeunes.
 La passion explose à nouveau, mais cette fois-ci, Marie, pour éviter d'être abandonnée à nouveau par Michael, l’attache à son lit, le soumet à la torture et l'humiliation avec la complicité de Jacqueline, sa jeune fille qui est attirée, elle aussi, par cet homme. On découvrira le secret qui les lie.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Encha%C3%AEn%C3%A9</t>
+          <t>L'Enchaîné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Giuseppe Patroni Griffi
 Assistant réalisateur : Aldo Terlizzi
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Encha%C3%AEn%C3%A9</t>
+          <t>L'Enchaîné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laura Antonelli: Marie Colbert
 Tony Musante: Michael Parker
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Encha%C3%AEn%C3%A9</t>
+          <t>L'Enchaîné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sujet est original mais il s’inspire de l'expérience célèbre de la prison de Stanford[2] où un groupe d'étudiants universitaires (Université de Stanford) ont été répartis au hasard entre "gardes" et "prisonniers". Ces derniers ont été confinés dans une réplique de prison. Il s’agissait d'étudier la manière dont le comportement humain est changé selon les situations et des rôles attribués, mais l’expérience a tourné court car elle produisait un comportement de plus en plus humiliant par les «gardes» auquel les «prisonniers " réagissaient de diverses manières, mais presque toujours par une autodestruction de leur personnalité.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sujet est original mais il s’inspire de l'expérience célèbre de la prison de Stanford où un groupe d'étudiants universitaires (Université de Stanford) ont été répartis au hasard entre "gardes" et "prisonniers". Ces derniers ont été confinés dans une réplique de prison. Il s’agissait d'étudier la manière dont le comportement humain est changé selon les situations et des rôles attribués, mais l’expérience a tourné court car elle produisait un comportement de plus en plus humiliant par les «gardes» auquel les «prisonniers " réagissaient de diverses manières, mais presque toujours par une autodestruction de leur personnalité.
 </t>
         </is>
       </c>
